--- a/krilov/files/22/22var11.xlsx
+++ b/krilov/files/22/22var11.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Новая папка\РТТ\1 ЕГЭ\Информатика\2023\От авторов\22\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,7 +173,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,7 +350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -363,20 +358,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +381,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -397,8 +401,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -408,8 +415,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -419,8 +429,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -430,8 +443,11 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -441,8 +457,11 @@
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -452,8 +471,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -463,8 +485,11 @@
       <c r="C8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -474,8 +499,11 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -485,8 +513,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -496,8 +527,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -507,8 +541,11 @@
       <c r="C12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -517,6 +554,9 @@
       </c>
       <c r="C13">
         <v>11</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
